--- a/хэши (черн, крас, бел)/red_ahash.xlsx
+++ b/хэши (черн, крас, бел)/red_ahash.xlsx
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.014261</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -469,11 +469,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.001323</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -487,11 +487,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.015633</v>
+        <v>0.006845</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -541,11 +541,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.005124</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -559,11 +559,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.001019</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -649,11 +649,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.005723</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -667,11 +667,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.011604</v>
+        <v>0.00033</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -685,11 +685,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.000418</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -721,7 +721,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -739,7 +739,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -757,7 +757,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -775,7 +775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -793,11 +793,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.006894</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -829,7 +829,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -847,7 +847,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -865,7 +865,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -901,11 +901,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.007073</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -937,11 +937,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.015687</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -973,7 +973,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -991,7 +991,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1009,11 +1009,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.000619</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1099,11 +1099,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.006219</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1189,11 +1189,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.015624</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1207,11 +1207,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.00706</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1279,11 +1279,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.006473</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1297,11 +1297,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.001216</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1333,11 +1333,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.015627</v>
+        <v>0.006844</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1369,11 +1369,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.006957</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1405,11 +1405,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.006881</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16411540910338327523</t>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1441,14 +1441,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16411540910338851811</t>
+          <t>1110001111000001100000011000000110000001100010011100001111100011</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.015636</v>
+        <v>0.005925</v>
       </c>
       <c r="D57" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1459,14 +1459,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16411540910338851811</t>
+          <t>1110001111000001100000011000000110000001100010011100001111100011</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.00094</v>
       </c>
       <c r="D58" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1477,14 +1477,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16411540910338851811</t>
+          <t>1110001111000001100000011000000110000001100010011100001111100011</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1495,14 +1495,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16411540910338851811</t>
+          <t>1110001111000001100000011000000110000001100010011100001111100011</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.006942</v>
       </c>
       <c r="D60" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1513,14 +1513,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16411540910338851811</t>
+          <t>1110001111000001100000011000000110000001100010011100001111100011</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1531,14 +1531,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16411540910338851811</t>
+          <t>1110001111000001100000011000000110000001100010011100001111100011</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.00708</v>
       </c>
       <c r="D62" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1549,14 +1549,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16411540910338851811</t>
+          <t>1110001111000001100000011000000110000001100010011100001111100011</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.015615</v>
+        <v>0.001211</v>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1567,14 +1567,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16411540910338851811</t>
+          <t>1110001111000001100000011000000110000001100010011100001111100011</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.005541</v>
       </c>
       <c r="D64" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/хэши (черн, крас, бел)/red_ahash.xlsx
+++ b/хэши (черн, крас, бел)/red_ahash.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.014261</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.001323</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.006845</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.005124</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.001019</v>
+        <v>0.015616</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.005723</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.00033</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.006894</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.015624</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.007073</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.000619</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.006219</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.015624</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.00706</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.006473</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.001216</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.015627</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.006844</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.006957</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.006881</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.015626</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.005925</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.00094</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.006942</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.00708</v>
+        <v>0.015624</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.001211</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1571,10 +1571,370 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.005541</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>red_fred_1.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>red_fred_2.jpg</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.015624</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>red_fred_3.jpg</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>red_fred_4.jpg</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>red_fred_5.jpg</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>red_fred_6.jpg</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>red_fred_7.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>red_fred_8.jpg</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.015624</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>red_fred_9.jpg</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>red_fred_10.jpg</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>red_fred_11.jpg</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>red_fred_12.jpg</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>red_fred_13.jpg</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>red_fred_14.jpg</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>red_fred_15.jpg</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>red_fred_16.jpg</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>red_fred_17.jpg</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>red_fred_18.jpg</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>red_fred_19.jpg</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>red_fred_20.jpg</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011000000110000001100000011100001111100011</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
